--- a/Alante Performance Data.xlsx
+++ b/Alante Performance Data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>238</v>
+        <v>224.7</v>
       </c>
       <c r="D2" t="n">
         <v>250</v>
       </c>
       <c r="E2" t="n">
-        <v>241.6</v>
+        <v>217.7</v>
       </c>
       <c r="F2" t="n">
-        <v>224.1</v>
+        <v>222.8</v>
       </c>
     </row>
     <row r="3">
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>292</v>
+        <v>257.9</v>
       </c>
       <c r="D3" t="n">
         <v>300</v>
       </c>
       <c r="E3" t="n">
-        <v>276.8</v>
+        <v>258.6</v>
       </c>
       <c r="F3" t="n">
-        <v>288.3</v>
+        <v>257.4</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.8</v>
+        <v>12.7</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4</v>
+        <v>12.7</v>
       </c>
       <c r="F4" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>76.3</v>
       </c>
       <c r="D5" t="n">
         <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>75.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>70.2</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="6">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>76.2</v>
       </c>
       <c r="D6" t="n">
         <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>62.3</v>
+        <v>77.5</v>
       </c>
       <c r="F6" t="n">
-        <v>68.2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>91.3</v>
       </c>
       <c r="D7" t="n">
         <v>90</v>
       </c>
       <c r="E7" t="n">
-        <v>85.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="F7" t="n">
-        <v>96.40000000000001</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>79.5</v>
       </c>
       <c r="D8" t="n">
         <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>73.5</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>70.5</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="9">
@@ -647,136 +647,136 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>69.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="F9" t="n">
-        <v>73.7</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PCCA</t>
+          <t>Novum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AWV Completion %</t>
+          <t>INP Admits/1,000</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>219.3</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="E10" t="n">
-        <v>63.9</v>
+        <v>211.7</v>
       </c>
       <c r="F10" t="n">
-        <v>59.7</v>
+        <v>215.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PCCA</t>
+          <t>Novum</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TCM7 Completion %</t>
+          <t>ER Admits/1,000</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>96</v>
+        <v>287.6</v>
       </c>
       <c r="D11" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="E11" t="n">
-        <v>91.90000000000001</v>
+        <v>281.2</v>
       </c>
       <c r="F11" t="n">
-        <v>94.7</v>
+        <v>285.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PCCA</t>
+          <t>Novum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ACP Completion %</t>
+          <t>Readmission Rate (%)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>14.7</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>85.59999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="F12" t="n">
-        <v>82.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PCCA</t>
+          <t>Novum</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SDOH Completion %</t>
+          <t>A1c Controlled %</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>101.8</v>
+        <v>70.8</v>
       </c>
       <c r="F13" t="n">
-        <v>100.3</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PCCA</t>
+          <t>Novum</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CCM Converted %</t>
+          <t>BP Control %</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>78.8</v>
       </c>
       <c r="D14" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>89.3</v>
+        <v>78.5</v>
       </c>
       <c r="F14" t="n">
-        <v>91.5</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="15">
@@ -787,20 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>INP Admits/1,000</t>
+          <t>Depression Screening w/ F/U</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>255</v>
+        <v>93.5</v>
       </c>
       <c r="D15" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>269.4</v>
+        <v>93.3</v>
       </c>
       <c r="F15" t="n">
-        <v>263.1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -811,20 +811,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ER Admits/1,000</t>
+          <t>Colorectal Screening %</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>287</v>
+        <v>82.3</v>
       </c>
       <c r="D16" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
-        <v>293.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>283</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -835,884 +835,404 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Readmission Rate (%)</t>
+          <t>Breast Cancer Screening %</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.2</v>
+        <v>79.5</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>15.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>15.9</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A1c Controlled %</t>
+          <t>INP Admits/1,000</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>71</v>
+        <v>236.9</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="E18" t="n">
-        <v>72.3</v>
+        <v>232.7</v>
       </c>
       <c r="F18" t="n">
-        <v>73.40000000000001</v>
+        <v>238.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BP Control %</t>
+          <t>ER Admits/1,000</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>259.7</v>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="E19" t="n">
-        <v>64.7</v>
+        <v>258.1</v>
       </c>
       <c r="F19" t="n">
-        <v>67.5</v>
+        <v>260.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Depression Screening w/ F/U</t>
+          <t>Readmission Rate (%)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>87.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Colorectal Screening %</t>
+          <t>A1c Controlled %</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
+        <v>78.7</v>
       </c>
       <c r="D21" t="n">
         <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>69.8</v>
+        <v>79.8</v>
       </c>
       <c r="F21" t="n">
-        <v>66.8</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Breast Cancer Screening %</t>
+          <t>BP Control %</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>80.8</v>
       </c>
       <c r="D22" t="n">
         <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>68.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AWV Completion %</t>
+          <t>Depression Screening w/ F/U</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>62</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E23" t="n">
-        <v>59.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>63.2</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TCM7 Completion %</t>
+          <t>Colorectal Screening %</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>95</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
-        <v>100.8</v>
+        <v>84.7</v>
       </c>
       <c r="F24" t="n">
-        <v>95.5</v>
+        <v>83.59999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ACP Completion %</t>
+          <t>Breast Cancer Screening %</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>80.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="F25" t="n">
-        <v>83.2</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SDOH Completion %</t>
+          <t>INP Admits/1,000</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>234.4</v>
       </c>
       <c r="D26" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E26" t="n">
-        <v>97.90000000000001</v>
+        <v>244.3</v>
       </c>
       <c r="F26" t="n">
-        <v>98.3</v>
+        <v>240.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Novum</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CCM Converted %</t>
+          <t>ER Admits/1,000</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
+        <v>266.4</v>
       </c>
       <c r="D27" t="n">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="E27" t="n">
-        <v>88.40000000000001</v>
+        <v>264.1</v>
       </c>
       <c r="F27" t="n">
-        <v>90.59999999999999</v>
+        <v>266.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INP Admits/1,000</t>
+          <t>Readmission Rate (%)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>244</v>
+        <v>12.6</v>
       </c>
       <c r="D28" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>250.5</v>
+        <v>12.4</v>
       </c>
       <c r="F28" t="n">
-        <v>250.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ER Admits/1,000</t>
+          <t>A1c Controlled %</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>305</v>
+        <v>73.2</v>
       </c>
       <c r="D29" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>310.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>301.2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Readmission Rate (%)</t>
+          <t>BP Control %</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15.1</v>
+        <v>73.3</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>15.4</v>
+        <v>72.3</v>
       </c>
       <c r="F30" t="n">
-        <v>15.4</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A1c Controlled %</t>
+          <t>Depression Screening w/ F/U</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>74</v>
+        <v>95.2</v>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E31" t="n">
-        <v>75.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="F31" t="n">
-        <v>72</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BP Control %</t>
+          <t>Colorectal Screening %</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D32" t="n">
         <v>70</v>
       </c>
       <c r="E32" t="n">
-        <v>79.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>71</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>DKA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Depression Screening w/ F/U</t>
+          <t>Breast Cancer Screening %</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>90</v>
+        <v>83.2</v>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E33" t="n">
-        <v>88.2</v>
+        <v>82.3</v>
       </c>
       <c r="F33" t="n">
-        <v>88.59999999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Colorectal Screening %</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>74</v>
-      </c>
-      <c r="D34" t="n">
-        <v>70</v>
-      </c>
-      <c r="E34" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Breast Cancer Screening %</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>72</v>
-      </c>
-      <c r="D35" t="n">
-        <v>70</v>
-      </c>
-      <c r="E35" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="F35" t="n">
-        <v>73.40000000000001</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>AWV Completion %</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>66</v>
-      </c>
-      <c r="D36" t="n">
-        <v>60</v>
-      </c>
-      <c r="E36" t="n">
-        <v>68</v>
-      </c>
-      <c r="F36" t="n">
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TCM7 Completion %</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>97</v>
-      </c>
-      <c r="D37" t="n">
-        <v>95</v>
-      </c>
-      <c r="E37" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ACP Completion %</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>84</v>
-      </c>
-      <c r="D38" t="n">
-        <v>80</v>
-      </c>
-      <c r="E38" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>85.59999999999999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SDOH Completion %</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>100</v>
-      </c>
-      <c r="D39" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CCM Converted %</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>91</v>
-      </c>
-      <c r="D40" t="n">
-        <v>88</v>
-      </c>
-      <c r="E40" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="F40" t="n">
-        <v>93.40000000000001</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>INP Admits/1,000</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>262</v>
-      </c>
-      <c r="D41" t="n">
-        <v>250</v>
-      </c>
-      <c r="E41" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ER Admits/1,000</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>298</v>
-      </c>
-      <c r="D42" t="n">
-        <v>300</v>
-      </c>
-      <c r="E42" t="n">
-        <v>309.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Readmission Rate (%)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>17</v>
-      </c>
-      <c r="E43" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F43" t="n">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>A1c Controlled %</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>70</v>
-      </c>
-      <c r="D44" t="n">
-        <v>70</v>
-      </c>
-      <c r="E44" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>65.3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BP Control %</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>71</v>
-      </c>
-      <c r="D45" t="n">
-        <v>70</v>
-      </c>
-      <c r="E45" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="F45" t="n">
-        <v>66.90000000000001</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Depression Screening w/ F/U</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>93</v>
-      </c>
-      <c r="D46" t="n">
-        <v>90</v>
-      </c>
-      <c r="E46" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>88.09999999999999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Colorectal Screening %</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>72</v>
-      </c>
-      <c r="D47" t="n">
-        <v>70</v>
-      </c>
-      <c r="E47" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>69.09999999999999</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Breast Cancer Screening %</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>70</v>
-      </c>
-      <c r="D48" t="n">
-        <v>70</v>
-      </c>
-      <c r="E48" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>71.09999999999999</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AWV Completion %</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>61</v>
-      </c>
-      <c r="D49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E49" t="n">
-        <v>61.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TCM7 Completion %</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>95</v>
-      </c>
-      <c r="D50" t="n">
-        <v>95</v>
-      </c>
-      <c r="E50" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ACP Completion %</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>79</v>
-      </c>
-      <c r="D51" t="n">
-        <v>80</v>
-      </c>
-      <c r="E51" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>83.09999999999999</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>SDOH Completion %</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>100</v>
-      </c>
-      <c r="D52" t="n">
-        <v>100</v>
-      </c>
-      <c r="E52" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>DKA</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CCM Converted %</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>87</v>
-      </c>
-      <c r="D53" t="n">
-        <v>88</v>
-      </c>
-      <c r="E53" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F53" t="n">
-        <v>89.59999999999999</v>
+        <v>82.7</v>
       </c>
     </row>
   </sheetData>
@@ -1786,13 +1306,13 @@
         <v>12840</v>
       </c>
       <c r="D2" t="n">
-        <v>5912</v>
+        <v>10580</v>
       </c>
       <c r="E2" t="n">
-        <v>5104</v>
+        <v>9835</v>
       </c>
       <c r="F2" t="n">
-        <v>39.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
@@ -1813,13 +1333,13 @@
         <v>6420</v>
       </c>
       <c r="D3" t="n">
-        <v>2188</v>
+        <v>6068</v>
       </c>
       <c r="E3" t="n">
-        <v>1964</v>
+        <v>5797</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6</v>
+        <v>90.3</v>
       </c>
       <c r="G3" t="n">
         <v>88</v>
@@ -1840,13 +1360,13 @@
         <v>1084</v>
       </c>
       <c r="D4" t="n">
-        <v>642</v>
+        <v>1084</v>
       </c>
       <c r="E4" t="n">
-        <v>598</v>
+        <v>1056</v>
       </c>
       <c r="F4" t="n">
-        <v>55.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>95</v>
@@ -1867,13 +1387,13 @@
         <v>1084</v>
       </c>
       <c r="D5" t="n">
-        <v>712</v>
+        <v>984</v>
       </c>
       <c r="E5" t="n">
-        <v>648</v>
+        <v>945</v>
       </c>
       <c r="F5" t="n">
-        <v>59.8</v>
+        <v>87.2</v>
       </c>
       <c r="G5" t="n">
         <v>80</v>
@@ -1894,13 +1414,13 @@
         <v>9100</v>
       </c>
       <c r="D6" t="n">
-        <v>3420</v>
+        <v>9100</v>
       </c>
       <c r="E6" t="n">
-        <v>3112</v>
+        <v>9100</v>
       </c>
       <c r="F6" t="n">
-        <v>34.2</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -1921,13 +1441,13 @@
         <v>11813</v>
       </c>
       <c r="D7" t="n">
-        <v>5439</v>
+        <v>10000</v>
       </c>
       <c r="E7" t="n">
-        <v>4696</v>
+        <v>8742</v>
       </c>
       <c r="F7" t="n">
-        <v>39.8</v>
+        <v>74</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
@@ -1948,13 +1468,13 @@
         <v>5906</v>
       </c>
       <c r="D8" t="n">
-        <v>2013</v>
+        <v>5574</v>
       </c>
       <c r="E8" t="n">
-        <v>1807</v>
+        <v>5434</v>
       </c>
       <c r="F8" t="n">
-        <v>30.6</v>
+        <v>92</v>
       </c>
       <c r="G8" t="n">
         <v>88</v>
@@ -1975,13 +1495,13 @@
         <v>997</v>
       </c>
       <c r="D9" t="n">
-        <v>591</v>
+        <v>997</v>
       </c>
       <c r="E9" t="n">
-        <v>550</v>
+        <v>973</v>
       </c>
       <c r="F9" t="n">
-        <v>55.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G9" t="n">
         <v>95</v>
@@ -2002,13 +1522,13 @@
         <v>997</v>
       </c>
       <c r="D10" t="n">
-        <v>655</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
-        <v>596</v>
+        <v>848</v>
       </c>
       <c r="F10" t="n">
-        <v>59.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>80</v>
@@ -2029,13 +1549,13 @@
         <v>8372</v>
       </c>
       <c r="D11" t="n">
-        <v>3146</v>
+        <v>8372</v>
       </c>
       <c r="E11" t="n">
-        <v>2863</v>
+        <v>8372</v>
       </c>
       <c r="F11" t="n">
-        <v>34.2</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
@@ -2056,13 +1576,13 @@
         <v>10914</v>
       </c>
       <c r="D12" t="n">
-        <v>5025</v>
+        <v>9355</v>
       </c>
       <c r="E12" t="n">
-        <v>4338</v>
+        <v>8458</v>
       </c>
       <c r="F12" t="n">
-        <v>39.7</v>
+        <v>77.5</v>
       </c>
       <c r="G12" t="n">
         <v>60</v>
@@ -2083,13 +1603,13 @@
         <v>5457</v>
       </c>
       <c r="D13" t="n">
-        <v>1860</v>
+        <v>5408</v>
       </c>
       <c r="E13" t="n">
-        <v>1669</v>
+        <v>4829</v>
       </c>
       <c r="F13" t="n">
-        <v>30.6</v>
+        <v>88.5</v>
       </c>
       <c r="G13" t="n">
         <v>88</v>
@@ -2110,13 +1630,13 @@
         <v>921</v>
       </c>
       <c r="D14" t="n">
-        <v>546</v>
+        <v>921</v>
       </c>
       <c r="E14" t="n">
-        <v>508</v>
+        <v>902</v>
       </c>
       <c r="F14" t="n">
-        <v>55.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G14" t="n">
         <v>95</v>
@@ -2137,13 +1657,13 @@
         <v>921</v>
       </c>
       <c r="D15" t="n">
-        <v>605</v>
+        <v>821</v>
       </c>
       <c r="E15" t="n">
-        <v>551</v>
+        <v>800</v>
       </c>
       <c r="F15" t="n">
-        <v>59.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G15" t="n">
         <v>80</v>
@@ -2164,13 +1684,13 @@
         <v>7735</v>
       </c>
       <c r="D16" t="n">
-        <v>2907</v>
+        <v>7735</v>
       </c>
       <c r="E16" t="n">
-        <v>2645</v>
+        <v>7735</v>
       </c>
       <c r="F16" t="n">
-        <v>34.2</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>100</v>
@@ -2191,13 +1711,13 @@
         <v>10015</v>
       </c>
       <c r="D17" t="n">
-        <v>4611</v>
+        <v>8435</v>
       </c>
       <c r="E17" t="n">
-        <v>3981</v>
+        <v>7962</v>
       </c>
       <c r="F17" t="n">
-        <v>39.8</v>
+        <v>79.5</v>
       </c>
       <c r="G17" t="n">
         <v>60</v>
@@ -2218,13 +1738,13 @@
         <v>5008</v>
       </c>
       <c r="D18" t="n">
-        <v>1707</v>
+        <v>5008</v>
       </c>
       <c r="E18" t="n">
-        <v>1532</v>
+        <v>4482</v>
       </c>
       <c r="F18" t="n">
-        <v>30.6</v>
+        <v>89.5</v>
       </c>
       <c r="G18" t="n">
         <v>88</v>
@@ -2245,13 +1765,13 @@
         <v>846</v>
       </c>
       <c r="D19" t="n">
-        <v>501</v>
+        <v>846</v>
       </c>
       <c r="E19" t="n">
-        <v>466</v>
+        <v>811</v>
       </c>
       <c r="F19" t="n">
-        <v>55.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G19" t="n">
         <v>95</v>
@@ -2272,13 +1792,13 @@
         <v>846</v>
       </c>
       <c r="D20" t="n">
-        <v>555</v>
+        <v>744</v>
       </c>
       <c r="E20" t="n">
-        <v>505</v>
+        <v>723</v>
       </c>
       <c r="F20" t="n">
-        <v>59.7</v>
+        <v>85.5</v>
       </c>
       <c r="G20" t="n">
         <v>80</v>
@@ -2299,13 +1819,13 @@
         <v>7098</v>
       </c>
       <c r="D21" t="n">
-        <v>2668</v>
+        <v>7098</v>
       </c>
       <c r="E21" t="n">
-        <v>2427</v>
+        <v>7098</v>
       </c>
       <c r="F21" t="n">
-        <v>34.2</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -3782,13 +3302,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FC66D7-5AE7-469F-BA26-73B2B2E10BAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66A3C1E2-14E9-4498-98D9-01815C1B8CF2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4E5558-5DB1-4DAB-817E-A05019901BE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C66F917-9CC6-4D64-98FA-DCB5FAD5D87B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88F0655B-9067-48F6-A7A3-507654E86B80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8999A3CC-9FD8-47A2-9966-20C893B93DCE}"/>
 </file>
--- a/Alante Performance Data.xlsx
+++ b/Alante Performance Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santeoperations.sharepoint.com/sites/Alante-Operations/Shared Documents/Projects (Jose)/4. Alante KPI Master Index/PowerBI Performance Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jose/Desktop/alante_dashboard_first_iteration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{9F9CDB50-8AD4-6A41-BD08-55EF3E77633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B2BF75D-6332-3141-966C-3068805C7D7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50EA0A5-9C84-4946-8B51-5C5364E242BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49280" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{54029B08-A30A-4844-A5CC-0E3562DC23B4}"/>
+    <workbookView xWindow="49280" yWindow="3020" windowWidth="32360" windowHeight="25780" xr2:uid="{54029B08-A30A-4844-A5CC-0E3562DC23B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_Metrics" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="141">
   <si>
     <t>Org</t>
   </si>
@@ -85,21 +85,6 @@
   </si>
   <si>
     <t>Breast Cancer Screening %</t>
-  </si>
-  <si>
-    <t>AWV Completion %</t>
-  </si>
-  <si>
-    <t>TCM7 Completion %</t>
-  </si>
-  <si>
-    <t>ACP Completion %</t>
-  </si>
-  <si>
-    <t>SDOH Completion %</t>
-  </si>
-  <si>
-    <t>CCM Converted %</t>
   </si>
   <si>
     <t>Patient</t>
@@ -548,7 +533,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -566,6 +550,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -583,8 +568,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D10DB227-7A24-804D-978F-2AFCBF42EAC9}" name="PerformanceMetrics" displayName="PerformanceMetrics" ref="A1:D53" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D53" xr:uid="{D10DB227-7A24-804D-978F-2AFCBF42EAC9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D10DB227-7A24-804D-978F-2AFCBF42EAC9}" name="PerformanceMetrics" displayName="PerformanceMetrics" ref="A1:D33" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D33" xr:uid="{D10DB227-7A24-804D-978F-2AFCBF42EAC9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+    <sortCondition ref="A1:A33"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4E247953-73F4-1C48-879D-9D48C6CA00D0}" name="Org"/>
     <tableColumn id="2" xr3:uid="{F349243F-C9FE-D349-AF9F-D3451DEBA135}" name="KPI"/>
@@ -596,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8DC0DEE-7D59-0A48-B9AE-CA2CD17F3793}" name="UtilizationLog" displayName="UtilizationLog" ref="A1:G29" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8DC0DEE-7D59-0A48-B9AE-CA2CD17F3793}" name="UtilizationLog" displayName="UtilizationLog" ref="A1:G29" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G29" xr:uid="{A8DC0DEE-7D59-0A48-B9AE-CA2CD17F3793}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{30086DC8-F188-D843-9CC7-3FBF0A561A0E}" name="Patient"/>
@@ -928,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF2A0B3-EF09-AE4F-8178-2F4E322D2D47}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,55 +947,55 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>238</v>
+        <v>15.1</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>292</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>15.8</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>70</v>
@@ -1015,13 +1003,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -1029,13 +1017,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>90</v>
@@ -1043,142 +1031,142 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>16.2</v>
+        <v>298</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1186,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>71</v>
+        <v>16.2</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1214,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1242,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>70</v>
@@ -1256,13 +1244,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1270,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="D24">
-        <v>95</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1284,405 +1272,125 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>15.8</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>250</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="D29">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>15.1</v>
+        <v>73</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D31">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>292</v>
       </c>
       <c r="D33">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
-        <v>74</v>
-      </c>
-      <c r="D34">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <v>72</v>
-      </c>
-      <c r="D35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
-        <v>66</v>
-      </c>
-      <c r="D36">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37">
-        <v>97</v>
-      </c>
-      <c r="D37">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>84</v>
-      </c>
-      <c r="D38">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>91</v>
-      </c>
-      <c r="D40">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>262</v>
-      </c>
-      <c r="D41">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>298</v>
-      </c>
-      <c r="D42">
         <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>70</v>
-      </c>
-      <c r="D44">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45">
-        <v>71</v>
-      </c>
-      <c r="D45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>93</v>
-      </c>
-      <c r="D46">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47">
-        <v>72</v>
-      </c>
-      <c r="D47">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <v>70</v>
-      </c>
-      <c r="D48">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49">
-        <v>61</v>
-      </c>
-      <c r="D49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>95</v>
-      </c>
-      <c r="D50">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>79</v>
-      </c>
-      <c r="D51">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <v>100</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <v>87</v>
-      </c>
-      <c r="D53">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1406,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,669 +1418,669 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" t="s">
         <v>140</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2384,6 +2092,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="fcad081f-ee80-4a7a-8e3e-66a09637efa6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c022339-0a34-4e14-b0ac-5799650e9a73">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Notes xmlns="9c022339-0a34-4e14-b0ac-5799650e9a73" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100066B0192D9D4174099ED87C5EF6CC604" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed1c829bc5d0149ff9c041dff933538a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c022339-0a34-4e14-b0ac-5799650e9a73" xmlns:ns3="fcad081f-ee80-4a7a-8e3e-66a09637efa6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7eee81c3c6ef25166573147f7d6045f" ns2:_="" ns3:_="">
     <xsd:import namespace="9c022339-0a34-4e14-b0ac-5799650e9a73"/>
@@ -2626,18 +2346,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="fcad081f-ee80-4a7a-8e3e-66a09637efa6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c022339-0a34-4e14-b0ac-5799650e9a73">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Notes xmlns="9c022339-0a34-4e14-b0ac-5799650e9a73" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2648,6 +2356,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CDABFBE-CFF9-4857-865A-CD2794AADF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fcad081f-ee80-4a7a-8e3e-66a09637efa6"/>
+    <ds:schemaRef ds:uri="9c022339-0a34-4e14-b0ac-5799650e9a73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8B3299B-13BE-45C8-ABBB-F883A2C7A079}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2666,23 +2391,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CDABFBE-CFF9-4857-865A-CD2794AADF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fcad081f-ee80-4a7a-8e3e-66a09637efa6"/>
-    <ds:schemaRef ds:uri="9c022339-0a34-4e14-b0ac-5799650e9a73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89BAA54D-42E9-4960-ABB2-D057112AE016}">
   <ds:schemaRefs>
